--- a/watch.xlsx
+++ b/watch.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19155" windowHeight="8760"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="19155" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOB" sheetId="1" r:id="rId1"/>
     <sheet name="PB" sheetId="2" r:id="rId2"/>
+    <sheet name="PBW" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>crpt</t>
   </si>
@@ -62,9 +63,6 @@
     <t>(AXP)</t>
   </si>
   <si>
-    <t>(JPMJ)</t>
-  </si>
-  <si>
     <t>(AAPL)</t>
   </si>
   <si>
@@ -146,17 +144,26 @@
     <t>stock</t>
   </si>
   <si>
-    <t>payout</t>
-  </si>
-  <si>
     <t>market cap</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>financing activities</t>
+  </si>
+  <si>
+    <t>(JPM)</t>
+  </si>
+  <si>
+    <t>Q318</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +177,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,14 +203,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,10 +219,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -686,177 +703,700 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>72830</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/C2/D2*6</f>
+        <v>6.8653027598517094E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <f>645+138-49</f>
+        <v>734</v>
+      </c>
+      <c r="C3">
+        <v>92140</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <f>B3/C3/D3*6</f>
+        <v>7.9661384849142609E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f>1070+52-6</f>
+        <v>1116</v>
+      </c>
+      <c r="C4">
+        <v>105530</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <f>B4/C4/D4*6</f>
+        <v>1.0575191888562494E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <f>-600+1317+1662</f>
+        <v>2379</v>
+      </c>
+      <c r="C5">
+        <v>190360</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <f>B5/C5/D5*6</f>
+        <v>1.249737339777264E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>12699+10721-1002</f>
+        <v>22418</v>
+      </c>
+      <c r="C6">
+        <v>856620</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <f>B6/C6/D6*6</f>
+        <v>1.3085148607317132E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <f>-135+1435+5604</f>
+        <v>6904</v>
+      </c>
+      <c r="C7">
+        <v>328870</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <f>B7/C7/D7*6</f>
+        <v>1.399539838436667E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <f>1533+539</f>
+        <v>2072</v>
+      </c>
+      <c r="C8">
+        <v>281390</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>B8/C8/D8*6</f>
+        <v>1.4726891502896338E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>3150+1588-478</f>
+        <v>4260</v>
+      </c>
+      <c r="C9">
+        <v>258430</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <f>B9/C9/D9*6</f>
+        <v>1.6484154316449329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>4668+1589-162</f>
+        <v>6095</v>
+      </c>
+      <c r="C10">
+        <v>358740</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <f>B10/C10/D10*6</f>
+        <v>1.6990020627752692E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <f>1607.2+786.1-91.7</f>
+        <v>2301.6000000000004</v>
+      </c>
+      <c r="C11">
+        <v>125460</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <f>B11/C11/D11*6</f>
+        <v>1.8345289335246297E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f>4253</f>
+        <v>4253</v>
+      </c>
+      <c r="C12">
+        <v>227770</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <f>B12/C12/D12*6</f>
+        <v>1.8672344909338369E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <f>1243+4254-733</f>
+        <v>4764</v>
+      </c>
+      <c r="C13">
+        <v>127400</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <f>B13/C13/D13*6</f>
+        <v>1.8697017268445838E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <f>800+907-10</f>
+        <v>1697</v>
+      </c>
+      <c r="C14">
+        <v>89730</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <f>B14/C14/D14*6</f>
+        <v>1.8912292432854118E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <f>1266+3577</f>
+        <v>4843</v>
+      </c>
+      <c r="C15">
+        <v>164860</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <f>B15/C15/D15*6</f>
+        <v>1.9584293744186985E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f>6793+429</f>
+        <v>7222</v>
+      </c>
+      <c r="C16">
+        <v>339930</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <f>B16/C16/D16*6</f>
+        <v>2.1245550554525931E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>4845</v>
+      </c>
+      <c r="C17">
+        <v>219780</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <f>B17/C17/D17*6</f>
+        <v>2.2044772044772044E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f>3121+2373-125</f>
+        <v>5369</v>
+      </c>
+      <c r="C18">
+        <v>234640</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <f>B18/C18/D18*6</f>
+        <v>2.2881861575178998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f>933+1250-256</f>
+        <v>1927</v>
+      </c>
+      <c r="C19">
+        <v>82160</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <f>B19/C19/D19*6</f>
+        <v>2.345423563777994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>2162+2610-299</f>
+        <v>4473</v>
+      </c>
+      <c r="C20">
+        <v>180710</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <f>B20/C20/D20*6</f>
+        <v>2.4752365668751039E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <f>700+404-98</f>
+        <v>1006</v>
+      </c>
+      <c r="C21">
+        <v>35370</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <f>B21/C21/D21*6</f>
+        <v>2.8442182640655921E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <f>2537+1612-305</f>
+        <v>3844</v>
+      </c>
+      <c r="C22">
+        <v>122370</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <f>B22/C22/D22*6</f>
+        <v>3.1412928005230038E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <f>2819+1767+143</f>
+        <v>4729</v>
+      </c>
+      <c r="C23">
+        <v>132970</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <f>B23/C23/D23*6</f>
+        <v>3.5564413025494471E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <f>1291+2525-118</f>
+        <v>3698</v>
+      </c>
+      <c r="C24">
+        <v>67107</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <f>B24/C24/D24*6</f>
+        <v>3.6737349804541006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <f>4716+9639</f>
+        <v>14355</v>
+      </c>
+      <c r="C25">
+        <v>387010</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <f>B25/C25/D25*6</f>
+        <v>3.7092064804527015E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <f>5807+2800-320</f>
+        <v>8287</v>
+      </c>
+      <c r="C26">
+        <v>221140</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <f>B26/C26/D26*6</f>
+        <v>3.7473998372071993E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>7004+7310+1177</f>
+        <v>15491</v>
+      </c>
+      <c r="C27">
+        <v>205850</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <f>B27/C27/D27*6</f>
+        <v>3.7626912800582946E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <f>10182+53634-328</f>
+        <v>63488</v>
+      </c>
+      <c r="C28">
+        <v>1100000</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <f>B28/C28/D28*6</f>
+        <v>3.8477575757575759E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <f>6063+4021-474</f>
+        <v>9610</v>
+      </c>
+      <c r="C29">
+        <v>242520</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <f>B29/C29/D29*6</f>
+        <v>3.9625597888833908E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <f>1997+5965</f>
+        <v>7962</v>
+      </c>
+      <c r="C30">
+        <v>198920</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <f>B30/C30/D30*6</f>
+        <v>4.0026141162276291E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <f>11562-318+4433</f>
+        <v>15677</v>
+      </c>
+      <c r="C31">
+        <v>224470</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <f>B31/C31/D31*6</f>
+        <v>6.984006771506214E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E31">
+    <sortCondition ref="E10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:A30">
+  <sortState ref="A1:A16">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
